--- a/ECFP4 Fingerprint/top_similarities_maccs_dice.xlsx
+++ b/ECFP4 Fingerprint/top_similarities_maccs_dice.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(0.6987951807228916, 6420227), (0.6185567010309279, 89043), (0.6140350877192983, 442004), (0.5897435897435898, 122382587), (0.575, 12315486)]</t>
+          <t>[(0.6185567010309279, 89043), (0.6140350877192983, 442004), (0.5897435897435898, 122382587), (0.575, 12315486), (0.5675675675675675, 6441048)]</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[(0.6458333333333334, 89043), (0.5609756097560976, 608924), (0.5555555555555556, 621574), (0.5365853658536586, 6420227), (0.5306122448979592, 29732)]</t>
+          <t>[(0.6458333333333334, 89043), (0.5609756097560976, 608924), (0.5555555555555556, 621574), (0.5306122448979592, 29732), (0.5227272727272727, 30600429)]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[(0.7307692307692307, 79730), (0.723404255319149, 660), (0.7169811320754716, 253955), (0.7058823529411765, 44583637), (0.7, 2116)]</t>
+          <t>[(0.7307692307692307, 79730), (0.723404255319149, 660), (0.7169811320754716, 253955), (0.7058823529411765, 44583637), (0.6909090909090909, 72344)]</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[(0.8085106382978723, 44537526), (0.7956989247311828, 636934), (0.782608695652174, 101306752), (0.7692307692307693, 15558574), (0.7628865979381443, 101618772)]</t>
+          <t>[(0.7692307692307693, 15558574), (0.7524752475247525, 8969), (0.7524752475247525, 92766), (0.7524752475247525, 643606), (0.7524752475247525, 120716)]</t>
         </is>
       </c>
     </row>
